--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/26_Diyarbakır_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/26_Diyarbakır_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D2C8FA-FD3F-436D-BF6A-61D149336699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE51AEE4-5B58-4DAE-8C24-C2C41386E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{CDECC5EB-DE26-4E43-853C-78F2CCA20157}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{7E2CCE7F-9DB9-4001-B2CE-CB9BC894165A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -895,13 +895,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D6630038-FDDA-4415-83D1-BBDDD2D5B1CF}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4AFF27DA-DAA5-48E0-A978-89E63BCF8992}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{0B3894C4-E325-4D88-B721-F201985A67AE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{0AB3D166-1C4B-4022-A087-B2EAFD9BA585}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F0BF4EB2-620F-4966-85B4-86C692B8FF45}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{F6F3A121-0A9E-4AF4-9648-0D7E33557EC7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{B4578DBC-AF01-433E-9CC0-61B635A85F68}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B7E0EA17-2253-4B32-A2C9-77DF508689F1}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7E72E2A5-2AAA-4F0D-AAEF-47812A73AF95}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8B1D468F-C5B6-40DC-9254-7128DF86FD61}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B127B802-71FF-442A-85D4-B0187B6F9359}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{5C074519-C8E3-4350-9FDF-8950E0A63160}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{6ED55EAF-1A90-45D4-923D-97934E9D54A6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{DBBAFF6D-5BD1-4D6B-A507-F8062661D9F9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1271,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ACCD6A-3C4B-4D98-B863-F270BC7174CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A176824-5AA0-4EAA-AD3D-BC5C69D4C01A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2564,7 +2564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD6085-F457-4AA0-8456-67DC09797467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771E2352-51AD-4642-96E3-BAE2C6ED8BAC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3852,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6BE569-DD88-4085-BE7F-73C84673C6D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1764241-013E-4896-AA5F-6C316F4D8345}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5138,7 +5138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744036F1-AAD2-428D-8D5D-5DDCEA6B285C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C360F2-13B6-4ACE-82AF-1DE4A6A597B1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6414,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B917B668-90C2-418A-905E-375C1A5E03E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B3CE58-C527-4E39-A56A-28D48E43DA10}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7707,7 +7707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D3762-7FE9-4CDB-A8D3-C0A17A1040D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC420818-0B2F-4D87-8CE6-60B87CDAC68D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8998,7 +8998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22D025-D836-473C-8369-27DE3CE4CB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74208E89-564B-4C31-84F9-3E565E8D4F01}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10285,7 +10285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942F5BE0-062A-4057-BB4B-17FBBF87BB28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F5AB5A-71EF-4065-8A92-8112B2E13F0A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11572,7 +11572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7FF185-399D-4D7C-A930-E6A6E8BA0856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F120A-D46C-4FA2-9960-90CA8A61D02F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12857,7 +12857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E67432F-6F87-46FC-BA33-AD89DB57D969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3D702-D636-47E3-92A2-F8FB719E3B91}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14138,7 +14138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24175836-14C0-43EA-8DAE-F3302D460142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EACB992-841F-4A05-B603-4F15C1F784A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15425,7 +15425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8841E9-D303-4D14-8BBF-DE3C05C2E7FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DBCCB8-8E5E-4848-B961-2CEF9390E95B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
